--- a/biology/Zoologie/Attini/Attini.xlsx
+++ b/biology/Zoologie/Attini/Attini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anergatidini, Basicerotini, Blepharidattini, Cephalotini, Dacetini, Lenomyrmecini, Ochetomyrmecini, Phalacromyrmecini, Pheidolini
 Les Attini sont une tribu de fourmis (Formicidae) de la sous-famille des Myrmicinae.
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des espèces fossiles ont été trouvées dans les genres Acanthognathus, Apterostigma, Cephalotes, Cyphomyrmex, Pheidole, Strumigenys et Trachymyrmex.
-Les fourmis des genres Atta et Acromyrmex sont des fourmis coupe-feuille qui cultivent des champignons qui produisent des gongylidia, des renflements riches en nutriments dont les fourmis se nourrissent[1].
+Les fourmis des genres Atta et Acromyrmex sont des fourmis coupe-feuille qui cultivent des champignons qui produisent des gongylidia, des renflements riches en nutriments dont les fourmis se nourrissent.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette tribu a de nombreux synonymes.
 Anergatidini Emery, 1922
@@ -584,7 +600,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthognathus - 
 Acromyrmex - 
